--- a/data/Spreadsheet_Data/ImagesHuman.xlsx
+++ b/data/Spreadsheet_Data/ImagesHuman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21EC61B1-AD58-6A45-816C-D01291A49D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B729AAD-DBFE-B34D-9EAD-6E276DCDEAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24380" yWindow="7000" windowWidth="28040" windowHeight="17440" xr2:uid="{7EED5AEB-F614-CE4A-AE23-7A550819DBDD}"/>
+    <workbookView xWindow="38240" yWindow="500" windowWidth="36520" windowHeight="17440" xr2:uid="{7EED5AEB-F614-CE4A-AE23-7A550819DBDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,248 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
+  <si>
+    <t>ImageDirectory</t>
+  </si>
+  <si>
+    <t>hasFilename</t>
+  </si>
+  <si>
+    <t>Bachmann-Gregor.jpeg</t>
+  </si>
+  <si>
+    <t>Balduin_ABrilliantPhoto_2022_15-1.jpeg</t>
+  </si>
+  <si>
+    <t>bw_cropped_Julien_ABrilliantPhoto_2023_17.jpeg</t>
+  </si>
+  <si>
+    <t>Christian_ABrilliantPhoto_2022_19.jpeg</t>
+  </si>
+  <si>
+    <t>Christina_ABrilliantPhoto_2022_09 (1).jpeg</t>
+  </si>
+  <si>
+    <t>DanielaM_ABrilliantPhoto_2022_06-1.jpeg</t>
+  </si>
+  <si>
+    <t>DanielaS_ABrilliantPhoto_2022_13-1_edite.jpeg</t>
+  </si>
+  <si>
+    <t>Dominique_ABrilliantPhoto_2022_06-1.jpeg</t>
+  </si>
+  <si>
+    <t>Flavie_ABrilliantPhoto_2022_06-1.jpeg</t>
+  </si>
+  <si>
+    <t>Irmantas_ABrilliantPhoto_2024_09bw.jpeg</t>
+  </si>
+  <si>
+    <t>Ivan_ABrilliantPhoto_2022_10-1 (1).jpeg</t>
+  </si>
+  <si>
+    <t>Johannes_ABrilliantPhoto_2022_03-1.jpeg</t>
+  </si>
+  <si>
+    <t>JoseLuis.jpeg</t>
+  </si>
+  <si>
+    <t>Julien_ABrilliantPhoto_2022_05-1 (1).jpeg</t>
+  </si>
+  <si>
+    <t>Lukas_ABrilliantPhoto_2022_04-1_edited_j.jpeg</t>
+  </si>
+  <si>
+    <t>Marcin_ABrilliantPhoto_2022_14-1.jpeg</t>
+  </si>
+  <si>
+    <t>Noemi_November2022_12_.jpeg</t>
+  </si>
+  <si>
+    <t>nora.jpeg</t>
+  </si>
+  <si>
+    <t>Raitis_ABrilliantPhoto_2024_09bw.jpeg</t>
+  </si>
+  <si>
+    <t>Rita_ABrilliantPhoto_2022_14-1 (1).jpeg</t>
+  </si>
+  <si>
+    <t>Samuel_ABrilliantPhoto_2022_07-1.jpeg</t>
+  </si>
+  <si>
+    <t>hasID</t>
+  </si>
+  <si>
+    <t>IH_001</t>
+  </si>
+  <si>
+    <t>IH_002</t>
+  </si>
+  <si>
+    <t>IH_003</t>
+  </si>
+  <si>
+    <t>IH_004</t>
+  </si>
+  <si>
+    <t>IH_005</t>
+  </si>
+  <si>
+    <t>IH_006</t>
+  </si>
+  <si>
+    <t>IH_007</t>
+  </si>
+  <si>
+    <t>IH_008</t>
+  </si>
+  <si>
+    <t>IH_009</t>
+  </si>
+  <si>
+    <t>IH_010</t>
+  </si>
+  <si>
+    <t>IH_011</t>
+  </si>
+  <si>
+    <t>IH_012</t>
+  </si>
+  <si>
+    <t>IH_013</t>
+  </si>
+  <si>
+    <t>IH_014</t>
+  </si>
+  <si>
+    <t>IH_015</t>
+  </si>
+  <si>
+    <t>IH_016</t>
+  </si>
+  <si>
+    <t>IH_017</t>
+  </si>
+  <si>
+    <t>IH_018</t>
+  </si>
+  <si>
+    <t>IH_019</t>
+  </si>
+  <si>
+    <t>IH_020</t>
+  </si>
+  <si>
+    <t>IH_021</t>
+  </si>
+  <si>
+    <t>hasCopyright</t>
+  </si>
+  <si>
+    <t>ABrilliantPhoto</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Balduin</t>
+  </si>
+  <si>
+    <t>Gregor</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>Daniela M</t>
+  </si>
+  <si>
+    <t>Daniela S</t>
+  </si>
+  <si>
+    <t>Dominique</t>
+  </si>
+  <si>
+    <t>Flabie</t>
+  </si>
+  <si>
+    <t>Irmantas</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Johannes</t>
+  </si>
+  <si>
+    <t>Jose Luis</t>
+  </si>
+  <si>
+    <t>Lukas</t>
+  </si>
+  <si>
+    <t>Marcin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noemi </t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Raitis</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Julien S</t>
+  </si>
+  <si>
+    <t>Julien R</t>
+  </si>
+  <si>
+    <t>hasLicenseList</t>
+  </si>
+  <si>
+    <t>CC BY 4.0</t>
+  </si>
+  <si>
+    <t>~/Documents/daschland-scripts/data/Multimedia_Data/Image_Human/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -66,8 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +637,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AE7FA7-C8FA-1B43-BF0F-01EE4860E752}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="81.5" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="103" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>